--- a/public/airport_code.xlsx
+++ b/public/airport_code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soji1\DDProjects\GlobalMap\globalmap\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51566EF-119F-453C-8A4C-D5F8F47762D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F416615A-70DA-4F62-BA35-2BE83818A1F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12348" yWindow="1644" windowWidth="10548" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,19 +509,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lon</t>
+    <t>lon'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>code'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>name'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1147,7 +1147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,6 +1164,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1523,9 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
@@ -1535,17 +1536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/public/airport_code.xlsx
+++ b/public/airport_code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soji1\DDProjects\GlobalMap\globalmap\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\globalmap\GlobalMap\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51566EF-119F-453C-8A4C-D5F8F47762D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98617C3-DC08-475B-9DA6-2DE128E9D032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="1644" windowWidth="10548" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="804" windowWidth="11532" windowHeight="10668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국토교통부_세계공항_코드_20191231" sheetId="1" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
